--- a/StructureDefinition-ext-R5-Evidence.citeAs.xlsx
+++ b/StructureDefinition-ext-R5-Evidence.citeAs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `Evidence.citeAs[x]` 0..1 `markdown, Reference(http://hl7.org/fhir/StructureDefinition/Citation)`
 *  R4B: `Evidence.citeAs[x]` 0..1 `markdown, Reference(http://hl7.org/fhir/StructureDefinition/Citation)`
 Following are the generation technical comments:
-Element `Evidence.citeAs[x]` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.citeAs[x]` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -141,7 +141,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Evidence</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-ext-R5-Evidence.citeAs.xlsx
+++ b/StructureDefinition-ext-R5-Evidence.citeAs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `Evidence.citeAs[x]` 0..1 `markdown, Reference(http://hl7.org/fhir/StructureDefinition/Citation)`
 *  R4B: `Evidence.citeAs[x]` 0..1 `markdown, Reference(http://hl7.org/fhir/StructureDefinition/Citation)`
 Following are the generation technical comments:
-Element `Evidence.citeAs[x]` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.citeAs[x]` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/StructureDefinition-ext-R5-Evidence.citeAs.xlsx
+++ b/StructureDefinition-ext-R5-Evidence.citeAs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -359,7 +359,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|0.0.1-snapshot-3|Basic|4.0.1)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|Basic)
 markdown</t>
   </si>
   <si>
@@ -700,7 +700,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.58984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.2734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Evidence.citeAs.xlsx
+++ b/StructureDefinition-ext-R5-Evidence.citeAs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -359,7 +359,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|Basic)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|0.0.1-snapshot-3|Basic|4.0.1)
 markdown</t>
   </si>
   <si>
@@ -700,7 +700,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="62.2734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
